--- a/pickle/rolling_corr_excel_target_index_S&P500_simulation_term_type_2_window_size_27.xlsx
+++ b/pickle/rolling_corr_excel_target_index_S&P500_simulation_term_type_2_window_size_27.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="252">
   <si>
     <t>S&amp;P500_BBA-10Y Spread</t>
   </si>
@@ -35,24 +35,6 @@
     <t>S&amp;P500_CNY/USD</t>
   </si>
   <si>
-    <t>S&amp;P500_CPB 선진국 산업생산</t>
-  </si>
-  <si>
-    <t>S&amp;P500_CPB 선진국 수출</t>
-  </si>
-  <si>
-    <t>S&amp;P500_CPB 세계교역</t>
-  </si>
-  <si>
-    <t>S&amp;P500_CPB 세계생산</t>
-  </si>
-  <si>
-    <t>S&amp;P500_CPB 이머징 산업생산</t>
-  </si>
-  <si>
-    <t>S&amp;P500_CPB 이머징 수출</t>
-  </si>
-  <si>
     <t>S&amp;P500_CPI 주거비</t>
   </si>
   <si>
@@ -203,18 +185,9 @@
     <t>S&amp;P500_Nikkei225 P/E</t>
   </si>
   <si>
-    <t>S&amp;P500_OECD ASIA 5 경기선행지수</t>
-  </si>
-  <si>
-    <t>S&amp;P500_OECD G7 경기선행지수</t>
-  </si>
-  <si>
     <t>S&amp;P500_OECD 소비자물가</t>
   </si>
   <si>
-    <t>S&amp;P500_OECD+6NME 경기선행지수</t>
-  </si>
-  <si>
     <t>S&amp;P500_OITP 인덱스</t>
   </si>
   <si>
@@ -374,12 +347,6 @@
     <t>S&amp;P500_두바이유가</t>
   </si>
   <si>
-    <t>S&amp;P500_러시아 OECD 경기선행지수</t>
-  </si>
-  <si>
-    <t>S&amp;P500_러시아 수출 YoY</t>
-  </si>
-  <si>
     <t>S&amp;P500_미국 10년 투기적포지션</t>
   </si>
   <si>
@@ -401,18 +368,12 @@
     <t>S&amp;P500_미국 NAHB 주택시장지수</t>
   </si>
   <si>
-    <t>S&amp;P500_미국 OECD 경기선행지수</t>
-  </si>
-  <si>
     <t>S&amp;P500_미국 PD 일평균 국채거래량</t>
   </si>
   <si>
     <t>S&amp;P500_미국 REER</t>
   </si>
   <si>
-    <t>S&amp;P500_미국 S&amp;P 케이스쉴러 주택가격</t>
-  </si>
-  <si>
     <t>S&amp;P500_미국 개인근로소득 YoY</t>
   </si>
   <si>
@@ -515,9 +476,6 @@
     <t>S&amp;P500_발틱 해운임지수</t>
   </si>
   <si>
-    <t>S&amp;P500_브라질 OECD 경기선행지수</t>
-  </si>
-  <si>
     <t>S&amp;P500_브라질 REER</t>
   </si>
   <si>
@@ -557,12 +515,6 @@
     <t>S&amp;P500_유럽 M3 YoY</t>
   </si>
   <si>
-    <t>S&amp;P500_유럽 OECD 경기선행지수</t>
-  </si>
-  <si>
-    <t>S&amp;P500_유럽 산업생산(건설 제외) YoY</t>
-  </si>
-  <si>
     <t>S&amp;P500_유럽 소매판매 YoY</t>
   </si>
   <si>
@@ -584,9 +536,6 @@
     <t>S&amp;P500_유로존 Core CPI</t>
   </si>
   <si>
-    <t>S&amp;P500_유로존 Credit Impulse</t>
-  </si>
-  <si>
     <t>S&amp;P500_유로존 ESI</t>
   </si>
   <si>
@@ -596,9 +545,6 @@
     <t>S&amp;P500_유로존 소비자신뢰지수</t>
   </si>
   <si>
-    <t>S&amp;P500_인도 OECD 경기선행지수</t>
-  </si>
-  <si>
     <t>S&amp;P500_인도 REER</t>
   </si>
   <si>
@@ -614,15 +560,9 @@
     <t>S&amp;P500_일본 ESI</t>
   </si>
   <si>
-    <t>S&amp;P500_일본 OECD 경기선행지수</t>
-  </si>
-  <si>
     <t>S&amp;P500_일본 REER</t>
   </si>
   <si>
-    <t>S&amp;P500_일본 경기선행지수</t>
-  </si>
-  <si>
     <t>S&amp;P500_일본 산업생산 YoY</t>
   </si>
   <si>
@@ -659,9 +599,6 @@
     <t>S&amp;P500_중국 M1 YoY</t>
   </si>
   <si>
-    <t>S&amp;P500_중국 OECD 경기선행지수</t>
-  </si>
-  <si>
     <t>S&amp;P500_중국 PPI</t>
   </si>
   <si>
@@ -699,18 +636,6 @@
   </si>
   <si>
     <t>S&amp;P500_한국 Core CPI</t>
-  </si>
-  <si>
-    <t>S&amp;P500_한국 M1 YoY</t>
-  </si>
-  <si>
-    <t>S&amp;P500_한국 M2 YoY</t>
-  </si>
-  <si>
-    <t>S&amp;P500_한국 M3 YoY</t>
-  </si>
-  <si>
-    <t>S&amp;P500_한국 OECD 경기선행지수</t>
   </si>
   <si>
     <t>S&amp;P500_한국 PPI</t>
@@ -1212,7 +1137,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:JO4"/>
+  <dimension ref="A1:IP4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1220,7 +1145,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:275">
+    <row r="1" spans="1:250">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1968,957 +1893,807 @@
       <c r="IP1" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="IQ1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:250">
+      <c r="A2" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="IR1" s="1" t="s">
+      <c r="B2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1</v>
+      </c>
+      <c r="T2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1</v>
+      </c>
+      <c r="W2" t="n">
+        <v>1</v>
+      </c>
+      <c r="X2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BR2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BT2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BY2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BZ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CD2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CG2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="CH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CI2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CJ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="CK2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CL2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="CM2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CN2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CO2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="CP2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CQ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CR2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="CS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CT2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CX2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CY2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="CZ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DD2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DG2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DH2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DI2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DJ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DK2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DL2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DM2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DN2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DO2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DP2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DQ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DR2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DT2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DX2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DY2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DZ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="ED2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="EE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EG2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EI2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EJ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EK2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EM2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EN2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EO2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="EP2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EQ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="ER2" t="n">
+        <v>1</v>
+      </c>
+      <c r="ES2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="ET2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="EU2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="EV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EX2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EY2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EZ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FB2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FD2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FG2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FI2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FJ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FK2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FM2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FN2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FO2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FP2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FQ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FR2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FS2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FT2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FX2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FY2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FZ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="GA2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="GB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GD2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GG2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GI2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="GJ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GK2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="GL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GM2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GN2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GO2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GP2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="GQ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GR2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GT2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GX2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GY2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GZ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HC2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HD2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HF2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HG2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HI2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HJ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HK2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HM2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HN2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HO2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HP2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HQ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HR2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HT2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HX2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HY2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HZ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IA2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IB2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IC2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="ID2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IF2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IG2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IH2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="II2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IJ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IK2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IM2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IN2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IO2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IP2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:250">
+      <c r="A3" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="IS1" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="IT1" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="IU1" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="IV1" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="IW1" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="IX1" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="IY1" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="IZ1" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="JA1" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="JB1" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="JC1" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="JD1" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="JE1" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="JF1" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="JG1" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="JH1" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="JI1" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="JJ1" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="JK1" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="JL1" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="JM1" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="JN1" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="JO1" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="2" spans="1:275">
-      <c r="A2" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="B2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="n">
-        <v>1</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1</v>
-      </c>
-      <c r="R2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1</v>
-      </c>
-      <c r="T2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1</v>
-      </c>
-      <c r="W2" t="n">
-        <v>1</v>
-      </c>
-      <c r="X2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AY2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BE2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BG2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BH2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BP2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="BQ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BR2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="BS2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BT2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BU2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BV2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="BW2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BX2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BY2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CB2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CC2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CE2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CG2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="CH2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="CI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CP2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="CQ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CR2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CS2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CT2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CU2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CV2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CW2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CX2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="CY2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DA2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="DB2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DC2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DE2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DG2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DH2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="DI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DL2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="DM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DP2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DQ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DR2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DS2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DT2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DU2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="DV2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DW2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DX2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="DY2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EB2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="EC2" t="n">
-        <v>1</v>
-      </c>
-      <c r="ED2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EE2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EG2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EH2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EK2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="EL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EP2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EQ2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="ER2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="ES2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="ET2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EU2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EV2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EW2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EX2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EY2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FB2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FC2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FE2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FF2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FG2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FH2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FP2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FQ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FR2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FS2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FT2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FU2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FV2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FW2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FX2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FY2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GB2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GC2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GE2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="GF2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="GG2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GH2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GI2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="GJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GP2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GQ2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="GR2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GS2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GT2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="GU2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GV2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GW2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GX2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GY2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HB2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HC2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HE2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HG2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HH2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HJ2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HK2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HL2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HM2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HP2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HQ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HR2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HS2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HT2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HU2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HV2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HW2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HX2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HY2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IB2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IC2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="ID2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IE2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IG2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IH2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="II2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IJ2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IM2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IO2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IP2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IQ2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IR2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IS2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IT2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IU2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IV2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IW2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IX2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IY2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IZ2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JA2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JB2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JC2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="JE2" t="n">
-        <v>1</v>
-      </c>
-      <c r="JF2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JG2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JH2" t="n">
-        <v>1</v>
-      </c>
-      <c r="JI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="JJ2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="JL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="JM2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="JO2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:275">
-      <c r="A3" s="1" t="s">
-        <v>275</v>
-      </c>
       <c r="B3" t="n">
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="n">
+        <v>3</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>3</v>
+      </c>
+      <c r="L3" t="n">
+        <v>3</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="n">
+        <v>3</v>
+      </c>
+      <c r="O3" t="n">
         <v>2</v>
       </c>
-      <c r="E3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" t="n">
-        <v>3</v>
-      </c>
-      <c r="G3" t="n">
-        <v>3</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>1</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q3" t="n">
         <v>2</v>
@@ -2927,16 +2702,16 @@
         <v>3</v>
       </c>
       <c r="S3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W3" t="n">
         <v>3</v>
@@ -2948,61 +2723,61 @@
         <v>0</v>
       </c>
       <c r="Z3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AA3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP3" t="n">
         <v>2</v>
       </c>
-      <c r="AC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>3</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>3</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>3</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>0</v>
-      </c>
       <c r="AQ3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AR3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AS3" t="n">
         <v>0</v>
@@ -3011,199 +2786,199 @@
         <v>0</v>
       </c>
       <c r="AU3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD3" t="n">
         <v>2</v>
       </c>
-      <c r="AX3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD3" t="n">
-        <v>0</v>
-      </c>
       <c r="BE3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BF3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BG3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BH3" t="n">
         <v>0</v>
       </c>
       <c r="BI3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BM3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BN3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BO3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BP3" t="n">
         <v>0</v>
       </c>
       <c r="BQ3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BR3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BS3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT3" t="n">
+        <v>3</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>3</v>
+      </c>
+      <c r="BV3" t="n">
+        <v>3</v>
+      </c>
+      <c r="BW3" t="n">
+        <v>3</v>
+      </c>
+      <c r="BX3" t="n">
+        <v>3</v>
+      </c>
+      <c r="BY3" t="n">
         <v>2</v>
-      </c>
-      <c r="BT3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU3" t="n">
-        <v>3</v>
-      </c>
-      <c r="BV3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX3" t="n">
-        <v>3</v>
-      </c>
-      <c r="BY3" t="n">
-        <v>0</v>
       </c>
       <c r="BZ3" t="n">
         <v>2</v>
       </c>
       <c r="CA3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CB3" t="n">
         <v>0</v>
       </c>
       <c r="CC3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CD3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CE3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CF3" t="n">
         <v>0</v>
       </c>
       <c r="CG3" t="n">
+        <v>3</v>
+      </c>
+      <c r="CH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI3" t="n">
+        <v>3</v>
+      </c>
+      <c r="CJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK3" t="n">
+        <v>3</v>
+      </c>
+      <c r="CL3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM3" t="n">
+        <v>3</v>
+      </c>
+      <c r="CN3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO3" t="n">
+        <v>3</v>
+      </c>
+      <c r="CP3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CQ3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS3" t="n">
+        <v>3</v>
+      </c>
+      <c r="CT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU3" t="n">
         <v>2</v>
       </c>
-      <c r="CH3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CI3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP3" t="n">
-        <v>3</v>
-      </c>
-      <c r="CQ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR3" t="n">
-        <v>3</v>
-      </c>
-      <c r="CS3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CT3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU3" t="n">
-        <v>3</v>
-      </c>
       <c r="CV3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CW3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CX3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CY3" t="n">
         <v>0</v>
       </c>
       <c r="CZ3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DA3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="DB3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="DC3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DD3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="DE3" t="n">
         <v>3</v>
       </c>
       <c r="DF3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="DG3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="DH3" t="n">
         <v>0</v>
@@ -3212,16 +2987,16 @@
         <v>2</v>
       </c>
       <c r="DJ3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="DK3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="DL3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="DM3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="DN3" t="n">
         <v>2</v>
@@ -3230,76 +3005,76 @@
         <v>2</v>
       </c>
       <c r="DP3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="DQ3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DR3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="DS3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="DT3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="DU3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DV3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="DW3" t="n">
         <v>3</v>
       </c>
       <c r="DX3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="DY3" t="n">
         <v>0</v>
       </c>
       <c r="DZ3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="EA3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="EB3" t="n">
         <v>0</v>
       </c>
       <c r="EC3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="ED3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EE3" t="n">
         <v>0</v>
       </c>
       <c r="EF3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EG3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EH3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="EI3" t="n">
         <v>0</v>
       </c>
       <c r="EJ3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="EK3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="EL3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EM3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="EN3" t="n">
         <v>2</v>
@@ -3308,10 +3083,10 @@
         <v>0</v>
       </c>
       <c r="EP3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="EQ3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ER3" t="n">
         <v>0</v>
@@ -3323,70 +3098,70 @@
         <v>0</v>
       </c>
       <c r="EU3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV3" t="n">
+        <v>3</v>
+      </c>
+      <c r="EW3" t="n">
+        <v>3</v>
+      </c>
+      <c r="EX3" t="n">
+        <v>3</v>
+      </c>
+      <c r="EY3" t="n">
+        <v>3</v>
+      </c>
+      <c r="EZ3" t="n">
+        <v>3</v>
+      </c>
+      <c r="FA3" t="n">
+        <v>3</v>
+      </c>
+      <c r="FB3" t="n">
+        <v>3</v>
+      </c>
+      <c r="FC3" t="n">
+        <v>3</v>
+      </c>
+      <c r="FD3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FE3" t="n">
+        <v>3</v>
+      </c>
+      <c r="FF3" t="n">
+        <v>3</v>
+      </c>
+      <c r="FG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH3" t="n">
         <v>2</v>
       </c>
-      <c r="EV3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EW3" t="n">
+      <c r="FI3" t="n">
+        <v>3</v>
+      </c>
+      <c r="FJ3" t="n">
+        <v>3</v>
+      </c>
+      <c r="FK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FL3" t="n">
         <v>2</v>
       </c>
-      <c r="EX3" t="n">
+      <c r="FM3" t="n">
         <v>2</v>
       </c>
-      <c r="EY3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EZ3" t="n">
-        <v>3</v>
-      </c>
-      <c r="FA3" t="n">
-        <v>2</v>
-      </c>
-      <c r="FB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FD3" t="n">
-        <v>2</v>
-      </c>
-      <c r="FE3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI3" t="n">
-        <v>3</v>
-      </c>
-      <c r="FJ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK3" t="n">
-        <v>2</v>
-      </c>
-      <c r="FL3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM3" t="n">
-        <v>3</v>
-      </c>
       <c r="FN3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="FO3" t="n">
         <v>0</v>
       </c>
       <c r="FP3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="FQ3" t="n">
         <v>2</v>
@@ -3398,1131 +3173,981 @@
         <v>0</v>
       </c>
       <c r="FT3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="FU3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="FV3" t="n">
         <v>3</v>
       </c>
       <c r="FW3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="FX3" t="n">
         <v>0</v>
       </c>
       <c r="FY3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="FZ3" t="n">
         <v>0</v>
       </c>
       <c r="GA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GB3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GC3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GD3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GE3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GF3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GH3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GI3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GK3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GL3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GM3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GN3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GO3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GP3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GX3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HA3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HC3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HE3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HF3" t="n">
+        <v>1</v>
+      </c>
+      <c r="HG3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HH3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HL3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HM3" t="n">
         <v>2</v>
       </c>
-      <c r="GB3" t="n">
+      <c r="HN3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HO3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HP3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HQ3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HR3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HS3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HU3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HV3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HW3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HX3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HY3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HZ3" t="n">
+        <v>3</v>
+      </c>
+      <c r="IA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="IB3" t="n">
+        <v>3</v>
+      </c>
+      <c r="IC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="ID3" t="n">
+        <v>0</v>
+      </c>
+      <c r="IE3" t="n">
+        <v>3</v>
+      </c>
+      <c r="IF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="IG3" t="n">
+        <v>3</v>
+      </c>
+      <c r="IH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="II3" t="n">
+        <v>3</v>
+      </c>
+      <c r="IJ3" t="n">
+        <v>3</v>
+      </c>
+      <c r="IK3" t="n">
+        <v>3</v>
+      </c>
+      <c r="IL3" t="n">
+        <v>1</v>
+      </c>
+      <c r="IM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="IN3" t="n">
         <v>2</v>
       </c>
-      <c r="GC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GG3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GH3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ3" t="n">
-        <v>2</v>
-      </c>
-      <c r="GK3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GL3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN3" t="n">
-        <v>2</v>
-      </c>
-      <c r="GO3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ3" t="n">
-        <v>3</v>
-      </c>
-      <c r="GR3" t="n">
-        <v>2</v>
-      </c>
-      <c r="GS3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GT3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU3" t="n">
-        <v>3</v>
-      </c>
-      <c r="GV3" t="n">
-        <v>3</v>
-      </c>
-      <c r="GW3" t="n">
-        <v>2</v>
-      </c>
-      <c r="GX3" t="n">
-        <v>2</v>
-      </c>
-      <c r="GY3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GZ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE3" t="n">
-        <v>2</v>
-      </c>
-      <c r="HF3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG3" t="n">
-        <v>2</v>
-      </c>
-      <c r="HH3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI3" t="n">
-        <v>3</v>
-      </c>
-      <c r="HJ3" t="n">
-        <v>3</v>
-      </c>
-      <c r="HK3" t="n">
-        <v>3</v>
-      </c>
-      <c r="HL3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN3" t="n">
-        <v>3</v>
-      </c>
-      <c r="HO3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HP3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HQ3" t="n">
-        <v>2</v>
-      </c>
-      <c r="HR3" t="n">
-        <v>2</v>
-      </c>
-      <c r="HS3" t="n">
-        <v>3</v>
-      </c>
-      <c r="HT3" t="n">
-        <v>3</v>
-      </c>
-      <c r="HU3" t="n">
-        <v>2</v>
-      </c>
-      <c r="HV3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HW3" t="n">
-        <v>3</v>
-      </c>
-      <c r="HX3" t="n">
-        <v>2</v>
-      </c>
-      <c r="HY3" t="n">
-        <v>3</v>
-      </c>
-      <c r="HZ3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="IB3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="ID3" t="n">
-        <v>1</v>
-      </c>
-      <c r="IE3" t="n">
-        <v>0</v>
-      </c>
-      <c r="IF3" t="n">
-        <v>1</v>
-      </c>
-      <c r="IG3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IH3" t="n">
-        <v>0</v>
-      </c>
-      <c r="II3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IJ3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IK3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IL3" t="n">
-        <v>0</v>
-      </c>
-      <c r="IM3" t="n">
-        <v>0</v>
-      </c>
-      <c r="IN3" t="n">
-        <v>1</v>
-      </c>
       <c r="IO3" t="n">
         <v>0</v>
       </c>
       <c r="IP3" t="n">
-        <v>1</v>
-      </c>
-      <c r="IQ3" t="n">
-        <v>1</v>
-      </c>
-      <c r="IR3" t="n">
-        <v>0</v>
-      </c>
-      <c r="IS3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IT3" t="n">
-        <v>2</v>
-      </c>
-      <c r="IU3" t="n">
-        <v>2</v>
-      </c>
-      <c r="IV3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IW3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IX3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IY3" t="n">
-        <v>0</v>
-      </c>
-      <c r="IZ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JA3" t="n">
-        <v>3</v>
-      </c>
-      <c r="JB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JD3" t="n">
-        <v>3</v>
-      </c>
-      <c r="JE3" t="n">
-        <v>2</v>
-      </c>
-      <c r="JF3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JH3" t="n">
-        <v>3</v>
-      </c>
-      <c r="JI3" t="n">
-        <v>3</v>
-      </c>
-      <c r="JJ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JK3" t="n">
-        <v>3</v>
-      </c>
-      <c r="JL3" t="n">
-        <v>3</v>
-      </c>
-      <c r="JM3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JN3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JO3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:275">
+    <row r="4" spans="1:250">
       <c r="A4" s="1" t="s">
-        <v>276</v>
+        <v>251</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.9529450957911346</v>
+        <v>-0.9473702412621106</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9553940285300558</v>
+        <v>0.9573911818695114</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9283238299581187</v>
+        <v>0.7605551982892996</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9134452076979694</v>
+        <v>0.8756611738867693</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6689216396994226</v>
+        <v>0.4730087927580168</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4395010012240916</v>
+        <v>-0.5478267011732</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9543453428501103</v>
+        <v>0.9714615854929812</v>
       </c>
       <c r="I4" t="n">
-        <v>0.951941713123677</v>
+        <v>0.9317166666125503</v>
       </c>
       <c r="J4" t="n">
-        <v>0.9572210487219754</v>
+        <v>0.5251479188321219</v>
       </c>
       <c r="K4" t="n">
-        <v>0.9772859555601068</v>
+        <v>0.2574773653865768</v>
       </c>
       <c r="L4" t="n">
-        <v>0.9772118798994071</v>
+        <v>-0.323554570646892</v>
       </c>
       <c r="M4" t="n">
-        <v>0.8958641462457581</v>
+        <v>0.9597437156349808</v>
       </c>
       <c r="N4" t="n">
-        <v>0.9793449224235666</v>
+        <v>-0.7658917741985964</v>
       </c>
       <c r="O4" t="n">
-        <v>0.945720818688797</v>
+        <v>0.9611467244487102</v>
       </c>
       <c r="P4" t="n">
-        <v>0.592937712206988</v>
+        <v>0.9614432371112855</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.6027808579926741</v>
+        <v>0.9230939862433339</v>
       </c>
       <c r="R4" t="n">
-        <v>-0.8047095770610087</v>
+        <v>0.5549590310427601</v>
       </c>
       <c r="S4" t="n">
-        <v>0.9656807710523461</v>
+        <v>0.7482804052822767</v>
       </c>
       <c r="T4" t="n">
-        <v>-0.8445010090847606</v>
+        <v>-0.6690179100444301</v>
       </c>
       <c r="U4" t="n">
-        <v>0.9007065185697577</v>
+        <v>0.8560698815759135</v>
       </c>
       <c r="V4" t="n">
-        <v>0.8510253228315096</v>
+        <v>0.499874535060119</v>
       </c>
       <c r="W4" t="n">
-        <v>0.9058789029903623</v>
+        <v>0.9058453061090583</v>
       </c>
       <c r="X4" t="n">
-        <v>0.6068425736698729</v>
+        <v>0.8491634485498737</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.7192714898069946</v>
+        <v>-0.4074966259742318</v>
       </c>
       <c r="Z4" t="n">
-        <v>-0.7074281654638223</v>
+        <v>0.8834710868415687</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.9019963196959446</v>
+        <v>0.6833596060237059</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.7094178165623529</v>
+        <v>0.87217980288004</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.9425228591377421</v>
+        <v>0.5694357330192549</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.8856639593610848</v>
+        <v>0.9189018116171482</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.1434663302751151</v>
+        <v>0.7486446593310666</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.9102406090414289</v>
+        <v>0.8399443919332202</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.7250960550204603</v>
+        <v>0.5363325222081253</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.9305280300336071</v>
+        <v>0.371548410334303</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.6377415635735866</v>
+        <v>0.9390379912286334</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.9478996148970747</v>
+        <v>-0.1514015158268065</v>
       </c>
       <c r="AK4" t="n">
-        <v>0.7737738912290324</v>
+        <v>0.8991419495841753</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.7020460313758972</v>
+        <v>-0.1399268060341666</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.7199325864357224</v>
+        <v>-0.8683551504049197</v>
       </c>
       <c r="AN4" t="n">
-        <v>-0.1445225934196269</v>
+        <v>-0.6950192494636582</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.9515911236925702</v>
+        <v>0.9562222575908165</v>
       </c>
       <c r="AP4" t="n">
-        <v>-0.4147300497621337</v>
+        <v>-0.06132600216360679</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.9094641361903024</v>
+        <v>-0.7402214312321491</v>
       </c>
       <c r="AR4" t="n">
-        <v>-0.375567003799793</v>
+        <v>-0.470340617499488</v>
       </c>
       <c r="AS4" t="n">
-        <v>-0.7020092108952065</v>
+        <v>0.9596089976341373</v>
       </c>
       <c r="AT4" t="n">
-        <v>-0.7644890769283786</v>
+        <v>0.9909414897518115</v>
       </c>
       <c r="AU4" t="n">
-        <v>0.9710165376465201</v>
+        <v>0.9941383127427067</v>
       </c>
       <c r="AV4" t="n">
-        <v>0.3098533098296485</v>
+        <v>0.9562216881600027</v>
       </c>
       <c r="AW4" t="n">
-        <v>-0.7731326025949441</v>
+        <v>0.9395107983101745</v>
       </c>
       <c r="AX4" t="n">
-        <v>-0.7485952378184026</v>
+        <v>0.9602421881688136</v>
       </c>
       <c r="AY4" t="n">
-        <v>0.9822580755959329</v>
+        <v>0.994733893593951</v>
       </c>
       <c r="AZ4" t="n">
-        <v>0.9964558232197636</v>
+        <v>0.9942261438287131</v>
       </c>
       <c r="BA4" t="n">
-        <v>0.9965757037743302</v>
+        <v>0.9581445902859663</v>
       </c>
       <c r="BB4" t="n">
-        <v>0.9719474237021888</v>
+        <v>0.9660968467989622</v>
       </c>
       <c r="BC4" t="n">
-        <v>0.9828228074889904</v>
+        <v>0.9086916485657196</v>
       </c>
       <c r="BD4" t="n">
-        <v>0.984743392586059</v>
+        <v>0.8389370023181683</v>
       </c>
       <c r="BE4" t="n">
-        <v>0.9971777873908219</v>
+        <v>0.3219296388537168</v>
       </c>
       <c r="BF4" t="n">
-        <v>0.9953699237810445</v>
+        <v>0.8598094521909219</v>
       </c>
       <c r="BG4" t="n">
-        <v>0.9754097866273176</v>
+        <v>-0.2252218375038178</v>
       </c>
       <c r="BH4" t="n">
-        <v>0.946645498813932</v>
+        <v>0.8124756582812083</v>
       </c>
       <c r="BI4" t="n">
-        <v>0.8982520370100247</v>
+        <v>-0.2325670139863307</v>
       </c>
       <c r="BJ4" t="n">
-        <v>0.8354614258690195</v>
+        <v>0.8952124023238186</v>
       </c>
       <c r="BK4" t="n">
-        <v>0.4225531661309384</v>
+        <v>0.9242826420328516</v>
       </c>
       <c r="BL4" t="n">
-        <v>0.24215614407339</v>
+        <v>-0.2614716085625303</v>
       </c>
       <c r="BM4" t="n">
-        <v>0.9012766294396037</v>
+        <v>-0.836733900109739</v>
       </c>
       <c r="BN4" t="n">
-        <v>0.8843533595477928</v>
+        <v>1</v>
       </c>
       <c r="BO4" t="n">
-        <v>0.9794547948594572</v>
+        <v>0.9055800223027989</v>
       </c>
       <c r="BP4" t="n">
-        <v>-0.3540112384015439</v>
+        <v>0.9862363143399137</v>
       </c>
       <c r="BQ4" t="n">
-        <v>0.8763643695627227</v>
+        <v>0.3302000922748435</v>
       </c>
       <c r="BR4" t="n">
-        <v>-0.1209095491935671</v>
+        <v>0.9657042666984677</v>
       </c>
       <c r="BS4" t="n">
-        <v>0.9021388870405758</v>
+        <v>0.8759348473941199</v>
       </c>
       <c r="BT4" t="n">
-        <v>0.8632511313038098</v>
+        <v>0.5111180324204416</v>
       </c>
       <c r="BU4" t="n">
-        <v>0.6148463717795269</v>
+        <v>0.8936041980877221</v>
       </c>
       <c r="BV4" t="n">
-        <v>-0.4785208010930387</v>
+        <v>0.8918692405926777</v>
       </c>
       <c r="BW4" t="n">
-        <v>1</v>
+        <v>0.9117242850410392</v>
       </c>
       <c r="BX4" t="n">
-        <v>0.8809423185327719</v>
+        <v>-0.6433014830622986</v>
       </c>
       <c r="BY4" t="n">
-        <v>0.9917803590557288</v>
+        <v>-0.3910279053139808</v>
       </c>
       <c r="BZ4" t="n">
-        <v>0.7994938918068446</v>
+        <v>0.8551338904369191</v>
       </c>
       <c r="CA4" t="n">
-        <v>0.9718688841406384</v>
+        <v>0.9623831543701163</v>
       </c>
       <c r="CB4" t="n">
-        <v>0.9093989415697101</v>
+        <v>0.9044719359325082</v>
       </c>
       <c r="CC4" t="n">
-        <v>0.7010563076782252</v>
+        <v>0.8840773283007931</v>
       </c>
       <c r="CD4" t="n">
-        <v>0.9107516506685421</v>
+        <v>0.4694429845813429</v>
       </c>
       <c r="CE4" t="n">
-        <v>0.8658265621897618</v>
+        <v>0.5209245000832136</v>
       </c>
       <c r="CF4" t="n">
-        <v>0.8539255128679503</v>
+        <v>0.7770987107675038</v>
       </c>
       <c r="CG4" t="n">
-        <v>-0.8988189031944011</v>
+        <v>-0.2220266762172118</v>
       </c>
       <c r="CH4" t="n">
-        <v>-0.5223908256327882</v>
+        <v>0.825342267657985</v>
       </c>
       <c r="CI4" t="n">
-        <v>0.6826157689976993</v>
+        <v>0.3738282406817592</v>
       </c>
       <c r="CJ4" t="n">
-        <v>0.9414597533464095</v>
+        <v>-0.450923103403903</v>
       </c>
       <c r="CK4" t="n">
-        <v>0.8479234331913211</v>
+        <v>0.5092837513504032</v>
       </c>
       <c r="CL4" t="n">
-        <v>0.868110086511429</v>
+        <v>-0.2455676847888563</v>
       </c>
       <c r="CM4" t="n">
-        <v>0.5231227427734938</v>
+        <v>0.5287602043163666</v>
       </c>
       <c r="CN4" t="n">
-        <v>0.6998943851980484</v>
+        <v>0.9723898956690473</v>
       </c>
       <c r="CO4" t="n">
-        <v>0.7316577937884456</v>
+        <v>-0.4500304561762419</v>
       </c>
       <c r="CP4" t="n">
-        <v>-0.7760185190258054</v>
+        <v>0.9395632985480619</v>
       </c>
       <c r="CQ4" t="n">
-        <v>0.8574024390535727</v>
+        <v>0.9704197723435455</v>
       </c>
       <c r="CR4" t="n">
-        <v>0.6020581931238659</v>
+        <v>-0.5677491925363708</v>
       </c>
       <c r="CS4" t="n">
-        <v>0.1089572703498559</v>
+        <v>0.9438319418921929</v>
       </c>
       <c r="CT4" t="n">
-        <v>0.5582234774474469</v>
+        <v>0.2465728121472787</v>
       </c>
       <c r="CU4" t="n">
-        <v>0.09065434864963152</v>
+        <v>0.9077083882278448</v>
       </c>
       <c r="CV4" t="n">
-        <v>0.6977224854517615</v>
+        <v>0.8815448320198264</v>
       </c>
       <c r="CW4" t="n">
-        <v>0.9753935608246885</v>
+        <v>0.8550119904508561</v>
       </c>
       <c r="CX4" t="n">
-        <v>-0.1906394138342324</v>
+        <v>0.9086076523935802</v>
       </c>
       <c r="CY4" t="n">
-        <v>0.8940117728810607</v>
+        <v>-0.669063180999233</v>
       </c>
       <c r="CZ4" t="n">
-        <v>0.9826019580671229</v>
+        <v>0.8056585663569699</v>
       </c>
       <c r="DA4" t="n">
-        <v>-0.5593672038811764</v>
+        <v>0.8061476461987078</v>
       </c>
       <c r="DB4" t="n">
-        <v>0.9585331551256799</v>
+        <v>0.9364372102085931</v>
       </c>
       <c r="DC4" t="n">
-        <v>0.4857335802741634</v>
+        <v>0.2394902951043024</v>
       </c>
       <c r="DD4" t="n">
-        <v>0.905948669705944</v>
+        <v>0.5782288496750311</v>
       </c>
       <c r="DE4" t="n">
-        <v>0.9238545587873001</v>
+        <v>0.6847910664199937</v>
       </c>
       <c r="DF4" t="n">
-        <v>0.8949360369408574</v>
+        <v>0.1495450008764883</v>
       </c>
       <c r="DG4" t="n">
-        <v>0.9619113903364802</v>
+        <v>0.8842680318943053</v>
       </c>
       <c r="DH4" t="n">
-        <v>-0.5999930932653943</v>
+        <v>-0.4108036471072938</v>
       </c>
       <c r="DI4" t="n">
-        <v>0.7928902764517014</v>
+        <v>0.7688837644931503</v>
       </c>
       <c r="DJ4" t="n">
-        <v>0.7360443944356901</v>
+        <v>-0.7216517962481299</v>
       </c>
       <c r="DK4" t="n">
-        <v>0.9273659643119</v>
+        <v>0.42741122528474</v>
       </c>
       <c r="DL4" t="n">
-        <v>-0.6965510995701224</v>
+        <v>-0.722443809884309</v>
       </c>
       <c r="DM4" t="n">
-        <v>0.7011585522195537</v>
+        <v>-0.9619802368733064</v>
       </c>
       <c r="DN4" t="n">
-        <v>0.8039888217515956</v>
+        <v>0.8093582104340505</v>
       </c>
       <c r="DO4" t="n">
-        <v>0.1385513178427043</v>
+        <v>0.3253451971244937</v>
       </c>
       <c r="DP4" t="n">
-        <v>0.9093440857566104</v>
+        <v>-0.4518611807245083</v>
       </c>
       <c r="DQ4" t="n">
-        <v>0.8851589510695845</v>
+        <v>0.9723898956690473</v>
       </c>
       <c r="DR4" t="n">
-        <v>0.8466871699826868</v>
+        <v>0.967289710619588</v>
       </c>
       <c r="DS4" t="n">
-        <v>0.1858833997171533</v>
+        <v>0.9739293926161532</v>
       </c>
       <c r="DT4" t="n">
-        <v>0.7993594105059831</v>
+        <v>0.8372762250705401</v>
       </c>
       <c r="DU4" t="n">
-        <v>-0.7912182584828762</v>
+        <v>0.9392424412768066</v>
       </c>
       <c r="DV4" t="n">
-        <v>0.5232286911228088</v>
+        <v>0.6500880427848029</v>
       </c>
       <c r="DW4" t="n">
-        <v>0.3678135846404503</v>
+        <v>0.7571389352560941</v>
       </c>
       <c r="DX4" t="n">
-        <v>-0.8261805224895907</v>
+        <v>-0.9196219969795125</v>
       </c>
       <c r="DY4" t="n">
-        <v>0.8329958527997301</v>
+        <v>0.9919811965525007</v>
       </c>
       <c r="DZ4" t="n">
-        <v>0.9400222685612015</v>
+        <v>0.7691574032454588</v>
       </c>
       <c r="EA4" t="n">
-        <v>0.2597345513185534</v>
+        <v>0.9601031256800023</v>
       </c>
       <c r="EB4" t="n">
-        <v>-0.5423357462777479</v>
+        <v>0.9630485775265911</v>
       </c>
       <c r="EC4" t="n">
-        <v>0.9272869689580205</v>
+        <v>0.6359328199930374</v>
       </c>
       <c r="ED4" t="n">
-        <v>0.9753935608246885</v>
+        <v>-0.732303460593678</v>
       </c>
       <c r="EE4" t="n">
-        <v>0.9667853451699006</v>
+        <v>0.07630187356844444</v>
       </c>
       <c r="EF4" t="n">
-        <v>0.9264018269058426</v>
+        <v>0.1066233548412017</v>
       </c>
       <c r="EG4" t="n">
-        <v>0.7945029352729633</v>
+        <v>0.9129006880772634</v>
       </c>
       <c r="EH4" t="n">
-        <v>0.9372949117077638</v>
+        <v>0.9522420018371905</v>
       </c>
       <c r="EI4" t="n">
-        <v>0.5191776367900038</v>
+        <v>0.7538739676851126</v>
       </c>
       <c r="EJ4" t="n">
-        <v>0.9074541443662189</v>
+        <v>0.8778088626650984</v>
       </c>
       <c r="EK4" t="n">
-        <v>-0.9571637187862105</v>
+        <v>0.9410521817555055</v>
       </c>
       <c r="EL4" t="n">
-        <v>0.993793723571875</v>
+        <v>0.866789913766331</v>
       </c>
       <c r="EM4" t="n">
-        <v>0.704225202157861</v>
+        <v>0.8136025366740691</v>
       </c>
       <c r="EN4" t="n">
-        <v>0.956135966962089</v>
+        <v>0.8950202714331085</v>
       </c>
       <c r="EO4" t="n">
-        <v>0.9655888190684876</v>
+        <v>-0.9723572748981265</v>
       </c>
       <c r="EP4" t="n">
-        <v>0.6620508300979311</v>
+        <v>0.9517920433445067</v>
       </c>
       <c r="EQ4" t="n">
-        <v>-0.7869649985869931</v>
+        <v>0.1105180464922741</v>
       </c>
       <c r="ER4" t="n">
-        <v>-0.5351419256220238</v>
+        <v>0.9031625514368606</v>
       </c>
       <c r="ES4" t="n">
-        <v>-0.2661466030131497</v>
+        <v>-0.8765173484578197</v>
       </c>
       <c r="ET4" t="n">
-        <v>0.867619256767771</v>
+        <v>-0.9159060340124555</v>
       </c>
       <c r="EU4" t="n">
-        <v>0.9632684659184305</v>
+        <v>-0.9413203937445845</v>
       </c>
       <c r="EV4" t="n">
-        <v>0.3288518776337214</v>
+        <v>0.766435626823874</v>
       </c>
       <c r="EW4" t="n">
-        <v>0.881536776815134</v>
+        <v>0.83411073657653</v>
       </c>
       <c r="EX4" t="n">
-        <v>0.9372018709926676</v>
+        <v>0.8703099745376679</v>
       </c>
       <c r="EY4" t="n">
-        <v>0.880856185857554</v>
+        <v>0.4440930798545253</v>
       </c>
       <c r="EZ4" t="n">
-        <v>0.871685395704584</v>
+        <v>0.7910031097908838</v>
       </c>
       <c r="FA4" t="n">
-        <v>0.9061662144600174</v>
+        <v>0.6539541017287885</v>
       </c>
       <c r="FB4" t="n">
-        <v>-0.9758951046328186</v>
+        <v>-0.729115286429555</v>
       </c>
       <c r="FC4" t="n">
-        <v>0.9415974392338282</v>
+        <v>0.2574773653865768</v>
       </c>
       <c r="FD4" t="n">
-        <v>0.2008172877002963</v>
+        <v>0.8558438338166741</v>
       </c>
       <c r="FE4" t="n">
-        <v>0.7787870792320877</v>
+        <v>0.7286079081191612</v>
       </c>
       <c r="FF4" t="n">
-        <v>-0.8869044403445887</v>
+        <v>0.3684483249148057</v>
       </c>
       <c r="FG4" t="n">
-        <v>-0.931094167509115</v>
+        <v>-0.7004083649425192</v>
       </c>
       <c r="FH4" t="n">
-        <v>-0.9438697584958728</v>
+        <v>0.7654129988504729</v>
       </c>
       <c r="FI4" t="n">
-        <v>0.7359850624118743</v>
+        <v>-0.2485603775169461</v>
       </c>
       <c r="FJ4" t="n">
-        <v>0.8052042281404174</v>
+        <v>-0.207031595913844</v>
       </c>
       <c r="FK4" t="n">
-        <v>0.8887819661447069</v>
+        <v>-0.5570874469774925</v>
       </c>
       <c r="FL4" t="n">
-        <v>0.9772313422634784</v>
+        <v>0.2879335271334435</v>
       </c>
       <c r="FM4" t="n">
-        <v>0.6916874305173586</v>
+        <v>0.9615468003904238</v>
       </c>
       <c r="FN4" t="n">
-        <v>0.8747083763026177</v>
+        <v>0.8813515620977151</v>
       </c>
       <c r="FO4" t="n">
-        <v>0.7990529313826263</v>
+        <v>-0.6089851496734467</v>
       </c>
       <c r="FP4" t="n">
-        <v>-0.695147041480381</v>
+        <v>-0.8714455720448552</v>
       </c>
       <c r="FQ4" t="n">
-        <v>0.6027808579926741</v>
+        <v>0.9201462538159837</v>
       </c>
       <c r="FR4" t="n">
-        <v>0.9070348439479213</v>
+        <v>0.433974107626055</v>
       </c>
       <c r="FS4" t="n">
-        <v>0.696628812128227</v>
+        <v>-0.3483305482038591</v>
       </c>
       <c r="FT4" t="n">
-        <v>0.4339126411095963</v>
+        <v>0.7820508343905073</v>
       </c>
       <c r="FU4" t="n">
-        <v>-0.4080424065089199</v>
+        <v>0.9615468003904238</v>
       </c>
       <c r="FV4" t="n">
-        <v>0.8204118027187257</v>
+        <v>0.6524068465589354</v>
       </c>
       <c r="FW4" t="n">
-        <v>-0.3686731636913765</v>
+        <v>0.7809204489925801</v>
       </c>
       <c r="FX4" t="n">
-        <v>-0.1592419505252235</v>
+        <v>0.8382715311642034</v>
       </c>
       <c r="FY4" t="n">
-        <v>-0.4934135650849238</v>
+        <v>-0.4960813824262341</v>
       </c>
       <c r="FZ4" t="n">
-        <v>0.7660667478708668</v>
+        <v>-0.4487346465439696</v>
       </c>
       <c r="GA4" t="n">
-        <v>0.51794367075389</v>
+        <v>-0.8370067177164928</v>
       </c>
       <c r="GB4" t="n">
-        <v>0.2987944465197738</v>
+        <v>0.652290034377964</v>
       </c>
       <c r="GC4" t="n">
-        <v>0.9348378284909736</v>
+        <v>0.6796540639509853</v>
       </c>
       <c r="GD4" t="n">
-        <v>0.841618986490277</v>
+        <v>0.4004640248264157</v>
       </c>
       <c r="GE4" t="n">
-        <v>-0.4094170206094414</v>
+        <v>0.9065982463430451</v>
       </c>
       <c r="GF4" t="n">
-        <v>-0.8750493565450286</v>
+        <v>0.9437517704080112</v>
       </c>
       <c r="GG4" t="n">
-        <v>0.8950507100847401</v>
+        <v>0.3478869091825825</v>
       </c>
       <c r="GH4" t="n">
-        <v>0.4241096800349759</v>
+        <v>0.933807440003448</v>
       </c>
       <c r="GI4" t="n">
-        <v>-0.8811802095914824</v>
+        <v>-0.8081955569446244</v>
       </c>
       <c r="GJ4" t="n">
-        <v>0.6551673887568443</v>
+        <v>0</v>
       </c>
       <c r="GK4" t="n">
-        <v>0.6797581229628271</v>
+        <v>-0.1351838059484001</v>
       </c>
       <c r="GL4" t="n">
-        <v>0.9348378284909736</v>
+        <v>0.4116360837210261</v>
       </c>
       <c r="GM4" t="n">
-        <v>0.4489050246614396</v>
+        <v>0.9596401345909208</v>
       </c>
       <c r="GN4" t="n">
-        <v>0.854897725905762</v>
+        <v>0.8203986088895974</v>
       </c>
       <c r="GO4" t="n">
-        <v>0.4923981418402078</v>
+        <v>0.4135881561855079</v>
       </c>
       <c r="GP4" t="n">
-        <v>0.8226989336211944</v>
+        <v>-0.5973739001289414</v>
       </c>
       <c r="GQ4" t="n">
-        <v>-0.7874970382339014</v>
+        <v>2.948251479904898e-16</v>
       </c>
       <c r="GR4" t="n">
-        <v>0.1733091631781757</v>
+        <v>2.948251479904898e-16</v>
       </c>
       <c r="GS4" t="n">
-        <v>0.8241544148799917</v>
+        <v>0.7088872800537761</v>
       </c>
       <c r="GT4" t="n">
-        <v>-0.5612378181266007</v>
+        <v>0.6943382475828818</v>
       </c>
       <c r="GU4" t="n">
-        <v>0.7557812412624243</v>
+        <v>0</v>
       </c>
       <c r="GV4" t="n">
-        <v>0.8095611866035182</v>
+        <v>0.3759055644444985</v>
       </c>
       <c r="GW4" t="n">
-        <v>0.7459010605454776</v>
+        <v>0.3510255774269861</v>
       </c>
       <c r="GX4" t="n">
-        <v>0.5013428676359765</v>
+        <v>0.4980683849380185</v>
       </c>
       <c r="GY4" t="n">
-        <v>0.9076579598993432</v>
+        <v>0.5691669743931255</v>
       </c>
       <c r="GZ4" t="n">
-        <v>0.8907132170446908</v>
+        <v>-0.5742775265490696</v>
       </c>
       <c r="HA4" t="n">
-        <v>0.3625703956916282</v>
+        <v>0.746566860893682</v>
       </c>
       <c r="HB4" t="n">
-        <v>0.8541084009553516</v>
+        <v>0.6400129291569561</v>
       </c>
       <c r="HC4" t="n">
-        <v>-0.8167369461608202</v>
+        <v>-0.4156554109976212</v>
       </c>
       <c r="HD4" t="n">
-        <v>0</v>
+        <v>-0.7804592958679454</v>
       </c>
       <c r="HE4" t="n">
-        <v>-0.2415312767679544</v>
+        <v>0.3637470913685135</v>
       </c>
       <c r="HF4" t="n">
-        <v>0.3648413882674272</v>
+        <v>-0.4903535366007897</v>
       </c>
       <c r="HG4" t="n">
-        <v>0.9646799421096831</v>
+        <v>0.5071929063432062</v>
       </c>
       <c r="HH4" t="n">
-        <v>-0.7742100971584822</v>
+        <v>0.9754405411257918</v>
       </c>
       <c r="HI4" t="n">
-        <v>0.9282204920393924</v>
+        <v>-0.845457582923037</v>
       </c>
       <c r="HJ4" t="n">
-        <v>-0.754052104701272</v>
+        <v>-0.2279647793753022</v>
       </c>
       <c r="HK4" t="n">
-        <v>-0.7404178280453838</v>
+        <v>0.6945519499778905</v>
       </c>
       <c r="HL4" t="n">
-        <v>-1.467179478438881e-15</v>
+        <v>0.6858298458063232</v>
       </c>
       <c r="HM4" t="n">
-        <v>-1.467179478438881e-15</v>
+        <v>0.8711301315189807</v>
       </c>
       <c r="HN4" t="n">
-        <v>0.7872461380326088</v>
+        <v>-0.2304031727537488</v>
       </c>
       <c r="HO4" t="n">
-        <v>0.7339061170592811</v>
+        <v>-0.1886372751640205</v>
       </c>
       <c r="HP4" t="n">
-        <v>0</v>
+        <v>-0.4664972255456597</v>
       </c>
       <c r="HQ4" t="n">
-        <v>0.1602236820989912</v>
+        <v>-0.126223675579101</v>
       </c>
       <c r="HR4" t="n">
-        <v>0.3385282196654982</v>
+        <v>-0.6775274380857029</v>
       </c>
       <c r="HS4" t="n">
-        <v>0.5233900457826431</v>
+        <v>0.9563438862214829</v>
       </c>
       <c r="HT4" t="n">
-        <v>0.766583906728443</v>
+        <v>-0.3124050404409219</v>
       </c>
       <c r="HU4" t="n">
-        <v>-0.5970158921280577</v>
+        <v>0.5651243544845322</v>
       </c>
       <c r="HV4" t="n">
-        <v>-0.9323157275954618</v>
+        <v>0.4238701562892669</v>
       </c>
       <c r="HW4" t="n">
-        <v>-0.9176611459586649</v>
+        <v>0.7178649429774848</v>
       </c>
       <c r="HX4" t="n">
-        <v>-0.9427107341055347</v>
+        <v>0.6151799749443729</v>
       </c>
       <c r="HY4" t="n">
-        <v>0.2830986330112104</v>
+        <v>0.5118593369459123</v>
       </c>
       <c r="HZ4" t="n">
-        <v>0.8950050851192691</v>
+        <v>-0.3761899651395302</v>
       </c>
       <c r="IA4" t="n">
-        <v>0.7060982223715646</v>
+        <v>-0.5189526597164588</v>
       </c>
       <c r="IB4" t="n">
-        <v>-0.4931831722195606</v>
+        <v>-0.253120584704645</v>
       </c>
       <c r="IC4" t="n">
-        <v>-0.6330795402008281</v>
+        <v>-0.6042523708598332</v>
       </c>
       <c r="ID4" t="n">
-        <v>0.4920122091139861</v>
+        <v>-0.8715283019674011</v>
       </c>
       <c r="IE4" t="n">
-        <v>-0.0686644009146461</v>
+        <v>0.7451626225750957</v>
       </c>
       <c r="IF4" t="n">
-        <v>0.5708376514549848</v>
+        <v>-0.0891417587147731</v>
       </c>
       <c r="IG4" t="n">
-        <v>0.9758668730846927</v>
+        <v>-0.7613191531784056</v>
       </c>
       <c r="IH4" t="n">
-        <v>-0.7671915749255415</v>
+        <v>-0.6616329112675571</v>
       </c>
       <c r="II4" t="n">
-        <v>0.4350982413812686</v>
+        <v>0.7451626225750957</v>
       </c>
       <c r="IJ4" t="n">
-        <v>-0.462012051793484</v>
+        <v>0.7540906131186517</v>
       </c>
       <c r="IK4" t="n">
-        <v>0.1838271729563427</v>
+        <v>-0.3211489037229467</v>
       </c>
       <c r="IL4" t="n">
-        <v>0.8303070286252359</v>
+        <v>0.3502573632659332</v>
       </c>
       <c r="IM4" t="n">
-        <v>-0.1693332642488072</v>
+        <v>-0.4804055947164201</v>
       </c>
       <c r="IN4" t="n">
-        <v>0.08785957283123434</v>
+        <v>-0.6927683827153009</v>
       </c>
       <c r="IO4" t="n">
-        <v>-0.3636458452941851</v>
+        <v>0.9185271212400875</v>
       </c>
       <c r="IP4" t="n">
-        <v>-0.1724069202481927</v>
-      </c>
-      <c r="IQ4" t="n">
-        <v>-0.8085362066703682</v>
-      </c>
-      <c r="IR4" t="n">
-        <v>0.9670230260959987</v>
-      </c>
-      <c r="IS4" t="n">
-        <v>-0.4916168983921996</v>
-      </c>
-      <c r="IT4" t="n">
-        <v>0.6885506895194046</v>
-      </c>
-      <c r="IU4" t="n">
-        <v>0.600180929121518</v>
-      </c>
-      <c r="IV4" t="n">
-        <v>0.8295096046532896</v>
-      </c>
-      <c r="IW4" t="n">
-        <v>0.8077277804814633</v>
-      </c>
-      <c r="IX4" t="n">
-        <v>0.7921737222872482</v>
-      </c>
-      <c r="IY4" t="n">
-        <v>-0.3072458670975836</v>
-      </c>
-      <c r="IZ4" t="n">
-        <v>-0.5850420751614878</v>
-      </c>
-      <c r="JA4" t="n">
-        <v>-0.1368530253842901</v>
-      </c>
-      <c r="JB4" t="n">
-        <v>-0.3702820557620087</v>
-      </c>
-      <c r="JC4" t="n">
-        <v>-0.7674107250536136</v>
-      </c>
-      <c r="JD4" t="n">
-        <v>0.7737436273600699</v>
-      </c>
-      <c r="JE4" t="n">
-        <v>0.1970315779866255</v>
-      </c>
-      <c r="JF4" t="n">
-        <v>-0.8341768283771567</v>
-      </c>
-      <c r="JG4" t="n">
-        <v>-0.5179733546960734</v>
-      </c>
-      <c r="JH4" t="n">
-        <v>0.7737436273600699</v>
-      </c>
-      <c r="JI4" t="n">
-        <v>0.8021405831981469</v>
-      </c>
-      <c r="JJ4" t="n">
-        <v>-0.4372821558974974</v>
-      </c>
-      <c r="JK4" t="n">
-        <v>0.3424327945366297</v>
-      </c>
-      <c r="JL4" t="n">
-        <v>0.3112793774466495</v>
-      </c>
-      <c r="JM4" t="n">
-        <v>-0.5672139653635522</v>
-      </c>
-      <c r="JN4" t="n">
-        <v>0.9764966903337388</v>
-      </c>
-      <c r="JO4" t="n">
-        <v>0.934068798024694</v>
+        <v>0.8744617805915346</v>
       </c>
     </row>
   </sheetData>
